--- a/natmiOut/OldD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Nodal-Acvr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Nodal</t>
   </si>
   <si>
     <t>Acvr1b</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.836610887872829</v>
+        <v>0.937458</v>
       </c>
       <c r="H2">
-        <v>0.836610887872829</v>
+        <v>2.812374</v>
       </c>
       <c r="I2">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543122</v>
       </c>
       <c r="J2">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543121</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.51438562395092</v>
+        <v>2.548026</v>
       </c>
       <c r="N2">
-        <v>2.51438562395092</v>
+        <v>7.644078</v>
       </c>
       <c r="O2">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="P2">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="Q2">
-        <v>2.103562389308256</v>
+        <v>2.388667357908</v>
       </c>
       <c r="R2">
-        <v>2.103562389308256</v>
+        <v>21.498006221172</v>
       </c>
       <c r="S2">
-        <v>0.09661553807357266</v>
+        <v>0.07326981787214357</v>
       </c>
       <c r="T2">
-        <v>0.09661553807357266</v>
+        <v>0.07326981787214355</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.836610887872829</v>
+        <v>0.937458</v>
       </c>
       <c r="H3">
-        <v>0.836610887872829</v>
+        <v>2.812374</v>
       </c>
       <c r="I3">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543122</v>
       </c>
       <c r="J3">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543121</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.67710309867652</v>
+        <v>6.757657999999999</v>
       </c>
       <c r="N3">
-        <v>6.67710309867652</v>
+        <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977849</v>
       </c>
       <c r="P3">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977848</v>
       </c>
       <c r="Q3">
-        <v>5.586137151802181</v>
+        <v>6.335020553363999</v>
       </c>
       <c r="R3">
-        <v>5.586137151802181</v>
+        <v>57.015184980276</v>
       </c>
       <c r="S3">
-        <v>0.2565684048247421</v>
+        <v>0.1943199837451556</v>
       </c>
       <c r="T3">
-        <v>0.2565684048247421</v>
+        <v>0.1943199837451556</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.836610887872829</v>
+        <v>0.937458</v>
       </c>
       <c r="H4">
-        <v>0.836610887872829</v>
+        <v>2.812374</v>
       </c>
       <c r="I4">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543122</v>
       </c>
       <c r="J4">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543121</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.94897024934922</v>
+        <v>3.246115666666667</v>
       </c>
       <c r="N4">
-        <v>2.94897024934922</v>
+        <v>9.738347000000001</v>
       </c>
       <c r="O4">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="P4">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="Q4">
-        <v>2.467140618618609</v>
+        <v>3.043097100642</v>
       </c>
       <c r="R4">
-        <v>2.467140618618609</v>
+        <v>27.387873905778</v>
       </c>
       <c r="S4">
-        <v>0.1133144990529082</v>
+        <v>0.09334375068722948</v>
       </c>
       <c r="T4">
-        <v>0.1133144990529082</v>
+        <v>0.09334375068722946</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.836610887872829</v>
+        <v>0.937458</v>
       </c>
       <c r="H5">
-        <v>0.836610887872829</v>
+        <v>2.812374</v>
       </c>
       <c r="I5">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543122</v>
       </c>
       <c r="J5">
-        <v>0.5188324560266021</v>
+        <v>0.4048141722543121</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.36197443246214</v>
+        <v>1.525989333333333</v>
       </c>
       <c r="N5">
-        <v>1.36197443246214</v>
+        <v>4.577968</v>
       </c>
       <c r="O5">
-        <v>0.1008688131736612</v>
+        <v>0.108396945950343</v>
       </c>
       <c r="P5">
-        <v>0.1008688131736612</v>
+        <v>0.108396945950343</v>
       </c>
       <c r="Q5">
-        <v>1.139442639202243</v>
+        <v>1.430550908448</v>
       </c>
       <c r="R5">
-        <v>1.139442639202243</v>
+        <v>12.874958176032</v>
       </c>
       <c r="S5">
-        <v>0.05233401407537913</v>
+        <v>0.04388061994978353</v>
       </c>
       <c r="T5">
-        <v>0.05233401407537913</v>
+        <v>0.04388061994978351</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7758766852444809</v>
+        <v>0.955631</v>
       </c>
       <c r="H6">
-        <v>0.7758766852444809</v>
+        <v>2.866893</v>
       </c>
       <c r="I6">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="J6">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.51438562395092</v>
+        <v>2.548026</v>
       </c>
       <c r="N6">
-        <v>2.51438562395092</v>
+        <v>7.644078</v>
       </c>
       <c r="O6">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="P6">
-        <v>0.1862172208991854</v>
+        <v>0.1809961777378536</v>
       </c>
       <c r="Q6">
-        <v>1.950853183337416</v>
+        <v>2.434972634406</v>
       </c>
       <c r="R6">
-        <v>1.950853183337416</v>
+        <v>21.914753709654</v>
       </c>
       <c r="S6">
-        <v>0.08960168282561276</v>
+        <v>0.07469018273135909</v>
       </c>
       <c r="T6">
-        <v>0.08960168282561276</v>
+        <v>0.07469018273135908</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.7758766852444809</v>
+        <v>0.955631</v>
       </c>
       <c r="H7">
-        <v>0.7758766852444809</v>
+        <v>2.866893</v>
       </c>
       <c r="I7">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="J7">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.67710309867652</v>
+        <v>6.757657999999999</v>
       </c>
       <c r="N7">
-        <v>6.67710309867652</v>
+        <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977849</v>
       </c>
       <c r="P7">
-        <v>0.4945110928287552</v>
+        <v>0.4800226796977848</v>
       </c>
       <c r="Q7">
-        <v>5.180608619236791</v>
+        <v>6.457827472198</v>
       </c>
       <c r="R7">
-        <v>5.180608619236791</v>
+        <v>58.120447249782</v>
       </c>
       <c r="S7">
-        <v>0.2379426880040131</v>
+        <v>0.1980869547076955</v>
       </c>
       <c r="T7">
-        <v>0.2379426880040131</v>
+        <v>0.1980869547076955</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7758766852444809</v>
+        <v>0.955631</v>
       </c>
       <c r="H8">
-        <v>0.7758766852444809</v>
+        <v>2.866893</v>
       </c>
       <c r="I8">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="J8">
-        <v>0.4811675439733979</v>
+        <v>0.4126616576375268</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.94897024934922</v>
+        <v>3.246115666666667</v>
       </c>
       <c r="N8">
-        <v>2.94897024934922</v>
+        <v>9.738347000000001</v>
       </c>
       <c r="O8">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="P8">
-        <v>0.2184028730983982</v>
+        <v>0.2305841966140185</v>
       </c>
       <c r="Q8">
-        <v>2.288037261949663</v>
+        <v>3.102088760652334</v>
       </c>
       <c r="R8">
-        <v>2.288037261949663</v>
+        <v>27.918798845871</v>
       </c>
       <c r="S8">
-        <v>0.10508837404549</v>
+        <v>0.09515325679975828</v>
       </c>
       <c r="T8">
-        <v>0.10508837404549</v>
+        <v>0.09515325679975827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.955631</v>
+      </c>
+      <c r="H9">
+        <v>2.866893</v>
+      </c>
+      <c r="I9">
+        <v>0.4126616576375268</v>
+      </c>
+      <c r="J9">
+        <v>0.4126616576375268</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.525989333333333</v>
+      </c>
+      <c r="N9">
+        <v>4.577968</v>
+      </c>
+      <c r="O9">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="P9">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="Q9">
+        <v>1.458282712602667</v>
+      </c>
+      <c r="R9">
+        <v>13.124544413424</v>
+      </c>
+      <c r="S9">
+        <v>0.04473126339871395</v>
+      </c>
+      <c r="T9">
+        <v>0.04473126339871394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.2682876666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.804863</v>
+      </c>
+      <c r="I10">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="J10">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>2.548026</v>
+      </c>
+      <c r="N10">
+        <v>7.644078</v>
+      </c>
+      <c r="O10">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="P10">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="Q10">
+        <v>0.683603950146</v>
+      </c>
+      <c r="R10">
+        <v>6.152435551314</v>
+      </c>
+      <c r="S10">
+        <v>0.02096882044209877</v>
+      </c>
+      <c r="T10">
+        <v>0.02096882044209877</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2682876666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.804863</v>
+      </c>
+      <c r="I11">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="J11">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.757657999999999</v>
+      </c>
+      <c r="N11">
+        <v>20.272974</v>
+      </c>
+      <c r="O11">
+        <v>0.4800226796977849</v>
+      </c>
+      <c r="P11">
+        <v>0.4800226796977848</v>
+      </c>
+      <c r="Q11">
+        <v>1.812996296951333</v>
+      </c>
+      <c r="R11">
+        <v>16.316966672562</v>
+      </c>
+      <c r="S11">
+        <v>0.055611723432615</v>
+      </c>
+      <c r="T11">
+        <v>0.05561172343261499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2682876666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.804863</v>
+      </c>
+      <c r="I12">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="J12">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>3.246115666666667</v>
+      </c>
+      <c r="N12">
+        <v>9.738347000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="P12">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="Q12">
+        <v>0.8708927979401111</v>
+      </c>
+      <c r="R12">
+        <v>7.838035181461001</v>
+      </c>
+      <c r="S12">
+        <v>0.0267137056484577</v>
+      </c>
+      <c r="T12">
+        <v>0.02671370564845769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2682876666666666</v>
+      </c>
+      <c r="H13">
+        <v>0.804863</v>
+      </c>
+      <c r="I13">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="J13">
+        <v>0.1158522832038422</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.525989333333333</v>
+      </c>
+      <c r="N13">
+        <v>4.577968</v>
+      </c>
+      <c r="O13">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="P13">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="Q13">
+        <v>0.4094041175982222</v>
+      </c>
+      <c r="R13">
+        <v>3.684637058384</v>
+      </c>
+      <c r="S13">
+        <v>0.01255803368067071</v>
+      </c>
+      <c r="T13">
+        <v>0.01255803368067071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.7758766852444809</v>
-      </c>
-      <c r="H9">
-        <v>0.7758766852444809</v>
-      </c>
-      <c r="I9">
-        <v>0.4811675439733979</v>
-      </c>
-      <c r="J9">
-        <v>0.4811675439733979</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.36197443246214</v>
-      </c>
-      <c r="N9">
-        <v>1.36197443246214</v>
-      </c>
-      <c r="O9">
-        <v>0.1008688131736612</v>
-      </c>
-      <c r="P9">
-        <v>0.1008688131736612</v>
-      </c>
-      <c r="Q9">
-        <v>1.056724208046458</v>
-      </c>
-      <c r="R9">
-        <v>1.056724208046458</v>
-      </c>
-      <c r="S9">
-        <v>0.0485347990982821</v>
-      </c>
-      <c r="T9">
-        <v>0.0485347990982821</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.154397</v>
+      </c>
+      <c r="H14">
+        <v>0.463191</v>
+      </c>
+      <c r="I14">
+        <v>0.06667188690431895</v>
+      </c>
+      <c r="J14">
+        <v>0.06667188690431894</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.548026</v>
+      </c>
+      <c r="N14">
+        <v>7.644078</v>
+      </c>
+      <c r="O14">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="P14">
+        <v>0.1809961777378536</v>
+      </c>
+      <c r="Q14">
+        <v>0.393407570322</v>
+      </c>
+      <c r="R14">
+        <v>3.540668132898</v>
+      </c>
+      <c r="S14">
+        <v>0.01206735669225219</v>
+      </c>
+      <c r="T14">
+        <v>0.01206735669225218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.154397</v>
+      </c>
+      <c r="H15">
+        <v>0.463191</v>
+      </c>
+      <c r="I15">
+        <v>0.06667188690431895</v>
+      </c>
+      <c r="J15">
+        <v>0.06667188690431894</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>6.757657999999999</v>
+      </c>
+      <c r="N15">
+        <v>20.272974</v>
+      </c>
+      <c r="O15">
+        <v>0.4800226796977849</v>
+      </c>
+      <c r="P15">
+        <v>0.4800226796977848</v>
+      </c>
+      <c r="Q15">
+        <v>1.043362122226</v>
+      </c>
+      <c r="R15">
+        <v>9.390259100033999</v>
+      </c>
+      <c r="S15">
+        <v>0.03200401781231883</v>
+      </c>
+      <c r="T15">
+        <v>0.03200401781231883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.154397</v>
+      </c>
+      <c r="H16">
+        <v>0.463191</v>
+      </c>
+      <c r="I16">
+        <v>0.06667188690431895</v>
+      </c>
+      <c r="J16">
+        <v>0.06667188690431894</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.246115666666667</v>
+      </c>
+      <c r="N16">
+        <v>9.738347000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="P16">
+        <v>0.2305841966140185</v>
+      </c>
+      <c r="Q16">
+        <v>0.5011905205863334</v>
+      </c>
+      <c r="R16">
+        <v>4.510714685277001</v>
+      </c>
+      <c r="S16">
+        <v>0.01537348347857309</v>
+      </c>
+      <c r="T16">
+        <v>0.01537348347857308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.154397</v>
+      </c>
+      <c r="H17">
+        <v>0.463191</v>
+      </c>
+      <c r="I17">
+        <v>0.06667188690431895</v>
+      </c>
+      <c r="J17">
+        <v>0.06667188690431894</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.525989333333333</v>
+      </c>
+      <c r="N17">
+        <v>4.577968</v>
+      </c>
+      <c r="O17">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="P17">
+        <v>0.108396945950343</v>
+      </c>
+      <c r="Q17">
+        <v>0.2356081750986667</v>
+      </c>
+      <c r="R17">
+        <v>2.120473575888</v>
+      </c>
+      <c r="S17">
+        <v>0.007227028921174844</v>
+      </c>
+      <c r="T17">
+        <v>0.007227028921174842</v>
       </c>
     </row>
   </sheetData>
